--- a/studentx.xlsx
+++ b/studentx.xlsx
@@ -463,711 +463,711 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>張凡成</t>
+          <t>羅佩樺</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C2" t="n">
+        <v>79</v>
+      </c>
+      <c r="D2" t="n">
         <v>62</v>
       </c>
-      <c r="D2" t="n">
-        <v>82</v>
-      </c>
       <c r="E2" t="n">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F2" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>方雅慧</t>
+          <t>王志謙</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="C3" t="n">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="D3" t="n">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="E3" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F3" t="n">
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>陳向愛</t>
+          <t>盧必妍</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C4" t="n">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="D4" t="n">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="E4" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F4" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>蔡偉成</t>
+          <t>林建宏</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="C5" t="n">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="D5" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E5" t="n">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F5" t="n">
-        <v>55</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>錢佩豪</t>
+          <t>李立偉</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C6" t="n">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D6" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="E6" t="n">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="F6" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>王志謙</t>
+          <t>王展人</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C7" t="n">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="D7" t="n">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="E7" t="n">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="F7" t="n">
-        <v>76</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>張韋成</t>
+          <t>王柏聖</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="C8" t="n">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="D8" t="n">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="E8" t="n">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="F8" t="n">
-        <v>86</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>吳柏誠</t>
+          <t>吳麗卿</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C9" t="n">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="D9" t="n">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="E9" t="n">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="F9" t="n">
-        <v>93</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>林向鈺</t>
+          <t>黃佩芬</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="C10" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D10" t="n">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="E10" t="n">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="F10" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>謝佳穎</t>
+          <t>鄭憲定</t>
         </is>
       </c>
       <c r="B11" t="n">
+        <v>69</v>
+      </c>
+      <c r="C11" t="n">
         <v>74</v>
       </c>
-      <c r="C11" t="n">
-        <v>93</v>
-      </c>
       <c r="D11" t="n">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="E11" t="n">
+        <v>79</v>
+      </c>
+      <c r="F11" t="n">
         <v>61</v>
-      </c>
-      <c r="F11" t="n">
-        <v>63</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>林珍旺</t>
+          <t>林康亮</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C12" t="n">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="D12" t="n">
+        <v>71</v>
+      </c>
+      <c r="E12" t="n">
+        <v>74</v>
+      </c>
+      <c r="F12" t="n">
         <v>73</v>
-      </c>
-      <c r="E12" t="n">
-        <v>95</v>
-      </c>
-      <c r="F12" t="n">
-        <v>63</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>李彥伸</t>
+          <t>蔡嘉音</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="C13" t="n">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="D13" t="n">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E13" t="n">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F13" t="n">
-        <v>50</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>李佳彥</t>
+          <t>洪奎夫</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C14" t="n">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="D14" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="E14" t="n">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="F14" t="n">
-        <v>99</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>羅佩樺</t>
+          <t>陳建香</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C15" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D15" t="n">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E15" t="n">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="F15" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>林志成</t>
+          <t>魏秋萍</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C16" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D16" t="n">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="E16" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F16" t="n">
-        <v>81</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>彭偉妃</t>
+          <t>林士凱</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C17" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D17" t="n">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="E17" t="n">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="F17" t="n">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>王梅劭</t>
+          <t>黃必琪</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C18" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D18" t="n">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E18" t="n">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="F18" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>林士凱</t>
+          <t>林昱芳</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="C19" t="n">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="D19" t="n">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E19" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F19" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>戚亨</t>
+          <t>林珈發</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C20" t="n">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="D20" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E20" t="n">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="F20" t="n">
-        <v>91</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>盧冠發</t>
+          <t>賴又琦</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="D21" t="n">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="E21" t="n">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="F21" t="n">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>林益妏</t>
+          <t>陳孝邦</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="C22" t="n">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="D22" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E22" t="n">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="F22" t="n">
-        <v>87</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>楊健麟</t>
+          <t>鄧淑娟</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="C23" t="n">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D23" t="n">
+        <v>91</v>
+      </c>
+      <c r="E23" t="n">
         <v>97</v>
       </c>
-      <c r="E23" t="n">
-        <v>90</v>
-      </c>
       <c r="F23" t="n">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>翁鈺婷</t>
+          <t>陳奇瑄</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="C24" t="n">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D24" t="n">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="E24" t="n">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="F24" t="n">
-        <v>50</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>張雅芬</t>
+          <t>郎慧萍</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="C25" t="n">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="D25" t="n">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="E25" t="n">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="F25" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>許淑婷</t>
+          <t>黃奎紹</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C26" t="n">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="D26" t="n">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="E26" t="n">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="F26" t="n">
-        <v>93</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>藍姿婷</t>
+          <t>吳欣書</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C27" t="n">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="D27" t="n">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="E27" t="n">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F27" t="n">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>陳淑萍</t>
+          <t>童建霖</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C28" t="n">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D28" t="n">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="E28" t="n">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="F28" t="n">
-        <v>63</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>余月修</t>
+          <t>邱亭君</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C29" t="n">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="D29" t="n">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="E29" t="n">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="F29" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>吳志宣</t>
+          <t>楊偉翔</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="C30" t="n">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="D30" t="n">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="E30" t="n">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="F30" t="n">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>蕭淑華</t>
+          <t>翁鈺婷</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="C31" t="n">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="D31" t="n">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="E31" t="n">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="F31" t="n">
-        <v>80</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>張軒宸</t>
+          <t>王人仰</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C32" t="n">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="D32" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32" t="n">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="F32" t="n">
-        <v>86</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>白美珍</t>
+          <t>梁柏宇</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C33" t="n">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="D33" t="n">
+        <v>97</v>
+      </c>
+      <c r="E33" t="n">
         <v>93</v>
       </c>
-      <c r="E33" t="n">
-        <v>60</v>
-      </c>
       <c r="F33" t="n">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>吳麗卿</t>
+          <t>林淑安</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1177,296 +1177,296 @@
         <v>68</v>
       </c>
       <c r="D34" t="n">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="E34" t="n">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="F34" t="n">
-        <v>96</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>陳慧君</t>
+          <t>李美洋</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C35" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="D35" t="n">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E35" t="n">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="F35" t="n">
-        <v>86</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>陳怡伶</t>
+          <t>賴心怡</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="C36" t="n">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="D36" t="n">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="E36" t="n">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="F36" t="n">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>許芳如</t>
+          <t>王惠皓</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C37" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D37" t="n">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E37" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F37" t="n">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>黃政甫</t>
+          <t>鄭淑珍</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="C38" t="n">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="D38" t="n">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="E38" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F38" t="n">
-        <v>90</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>陳樂紫</t>
+          <t>李蓉瑞</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="C39" t="n">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="D39" t="n">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="E39" t="n">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="F39" t="n">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>馮耀中</t>
+          <t>王怡珊</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="C40" t="n">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D40" t="n">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="E40" t="n">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="F40" t="n">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>陳家維</t>
+          <t>王坤安</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C41" t="n">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D41" t="n">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="E41" t="n">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F41" t="n">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>郭舜昇</t>
+          <t>黃心航</t>
         </is>
       </c>
       <c r="B42" t="n">
+        <v>56</v>
+      </c>
+      <c r="C42" t="n">
+        <v>100</v>
+      </c>
+      <c r="D42" t="n">
         <v>80</v>
       </c>
-      <c r="C42" t="n">
-        <v>74</v>
-      </c>
-      <c r="D42" t="n">
-        <v>75</v>
-      </c>
       <c r="E42" t="n">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="F42" t="n">
-        <v>72</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>高俊男</t>
+          <t>賴苑禾</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="C43" t="n">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D43" t="n">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="E43" t="n">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="F43" t="n">
-        <v>57</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>崔孝憲</t>
+          <t>謝佳穎</t>
         </is>
       </c>
       <c r="B44" t="n">
+        <v>72</v>
+      </c>
+      <c r="C44" t="n">
+        <v>64</v>
+      </c>
+      <c r="D44" t="n">
+        <v>78</v>
+      </c>
+      <c r="E44" t="n">
         <v>98</v>
       </c>
-      <c r="C44" t="n">
-        <v>71</v>
-      </c>
-      <c r="D44" t="n">
-        <v>76</v>
-      </c>
-      <c r="E44" t="n">
-        <v>56</v>
-      </c>
       <c r="F44" t="n">
-        <v>52</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>金宜芳</t>
+          <t>陳怡伶</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="C45" t="n">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="D45" t="n">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E45" t="n">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="F45" t="n">
-        <v>55</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>黃心航</t>
+          <t>楊易政</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="C46" t="n">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="D46" t="n">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E46" t="n">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="F46" t="n">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>陳美惠</t>
+          <t>陳倩潔</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C47" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D47" t="n">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="E47" t="n">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="F47" t="n">
         <v>80</v>
@@ -1475,89 +1475,89 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>呂傑宣</t>
+          <t>陳志偉</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="C48" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D48" t="n">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="E48" t="n">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="F48" t="n">
-        <v>96</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>黃必琪</t>
+          <t>蔡明平</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C49" t="n">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="D49" t="n">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E49" t="n">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="F49" t="n">
-        <v>53</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>劉昀天</t>
+          <t>黃江旭</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C50" t="n">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D50" t="n">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="E50" t="n">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="F50" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>陳怡珊</t>
+          <t>吳志宣</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="C51" t="n">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="D51" t="n">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="E51" t="n">
         <v>83</v>
       </c>
       <c r="F51" t="n">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
